--- a/data/trans_orig/P33B_R4-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>125827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105590</v>
+        <v>106810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144726</v>
+        <v>147092</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2527864443312706</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.212130340305287</v>
+        <v>0.2145811372580775</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2907534463318431</v>
+        <v>0.295507663269482</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>353</v>
@@ -762,19 +762,19 @@
         <v>235286</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>211128</v>
+        <v>212621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>257260</v>
+        <v>256922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3773156321514821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3385740291527575</v>
+        <v>0.3409683181593734</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4125535031675955</v>
+        <v>0.4120115878814741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>489</v>
@@ -783,19 +783,19 @@
         <v>361114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332715</v>
+        <v>329084</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392359</v>
+        <v>392314</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.322037399803791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2967117655783656</v>
+        <v>0.2934736725746494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3499014775925123</v>
+        <v>0.3498616336997682</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>371934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353035</v>
+        <v>350669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392171</v>
+        <v>390951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7472135556687295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.709246553668157</v>
+        <v>0.7044923367305183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.787869659694713</v>
+        <v>0.7854188627419227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -833,19 +833,19 @@
         <v>388294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>366320</v>
+        <v>366658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>412452</v>
+        <v>410959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6226843678485178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5874464968324045</v>
+        <v>0.5879884121185259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6614259708472423</v>
+        <v>0.6590316818406265</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>826</v>
@@ -854,19 +854,19 @@
         <v>760227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>728982</v>
+        <v>729027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>788626</v>
+        <v>792257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.677962600196209</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.650098522407488</v>
+        <v>0.6501383663002318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7032882344216345</v>
+        <v>0.7065263274253509</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>145725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124980</v>
+        <v>123990</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169759</v>
+        <v>168703</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1517747002014752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1301688698019404</v>
+        <v>0.1291380368049179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1768073742539648</v>
+        <v>0.1757075899720119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>422</v>
@@ -979,19 +979,19 @@
         <v>271483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250283</v>
+        <v>246520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>297659</v>
+        <v>294722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2434587145969602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.224447544089119</v>
+        <v>0.2210723843468945</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2669323057068267</v>
+        <v>0.2642992163642003</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>592</v>
@@ -1000,19 +1000,19 @@
         <v>417208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>381888</v>
+        <v>383914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>453473</v>
+        <v>452269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2010400316061766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.184020570739592</v>
+        <v>0.1849967783594592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2185153355583462</v>
+        <v>0.217934998046796</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>814412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>790378</v>
+        <v>791434</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>835157</v>
+        <v>836147</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.848225299798525</v>
+        <v>0.8482252997985249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8231926257460351</v>
+        <v>0.8242924100279881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8698311301980596</v>
+        <v>0.8708619631950824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1184</v>
@@ -1050,19 +1050,19 @@
         <v>843626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>817450</v>
+        <v>820387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>864826</v>
+        <v>868589</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7565412854030398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7330676942931731</v>
+        <v>0.7357007836357999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7755524559108808</v>
+        <v>0.778927615653106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1924</v>
@@ -1071,19 +1071,19 @@
         <v>1658038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1621773</v>
+        <v>1622977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1693358</v>
+        <v>1691332</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7989599683938234</v>
+        <v>0.7989599683938233</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7814846644416537</v>
+        <v>0.7820650019532039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8159794292604075</v>
+        <v>0.8150032216405407</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>118848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100806</v>
+        <v>101416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144030</v>
+        <v>144120</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1136764808249988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09642006948786185</v>
+        <v>0.09700318992539417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1377627036858884</v>
+        <v>0.1378494225891064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>260</v>
@@ -1196,19 +1196,19 @@
         <v>180085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161235</v>
+        <v>159752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205178</v>
+        <v>202348</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1719640984584682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1539643722718734</v>
+        <v>0.1525478050266893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1959256162891538</v>
+        <v>0.193222873029997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1217,19 +1217,19 @@
         <v>298933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>271107</v>
+        <v>268743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>329363</v>
+        <v>329459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1428444512874224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1295477691015242</v>
+        <v>0.1284183346173645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.157385288935355</v>
+        <v>0.1574312531987326</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>926643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>901461</v>
+        <v>901371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>944685</v>
+        <v>944075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8863235191750011</v>
+        <v>0.8863235191750013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8622372963141112</v>
+        <v>0.8621505774108942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9035799305121381</v>
+        <v>0.9029968100746056</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1255</v>
@@ -1267,19 +1267,19 @@
         <v>867141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>842048</v>
+        <v>844878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>885991</v>
+        <v>887474</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8280359015415318</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8040743837108464</v>
+        <v>0.8067771269700033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8460356277281269</v>
+        <v>0.8474521949733107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2151</v>
@@ -1288,19 +1288,19 @@
         <v>1793785</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1763355</v>
+        <v>1763259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1821611</v>
+        <v>1823975</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8571555487125775</v>
+        <v>0.8571555487125776</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8426147110646451</v>
+        <v>0.8425687468012674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8704522308984757</v>
+        <v>0.8715816653826356</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>91358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71051</v>
+        <v>71645</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117099</v>
+        <v>114700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09361175869704172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07280368384478304</v>
+        <v>0.07341220860874774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1199871130775525</v>
+        <v>0.1175293158519528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -1413,19 +1413,19 @@
         <v>150289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130065</v>
+        <v>130737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170840</v>
+        <v>172648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1654704089237858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1432033509684999</v>
+        <v>0.1439435663768421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1880976918257715</v>
+        <v>0.1900889706841254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -1434,19 +1434,19 @@
         <v>241647</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211598</v>
+        <v>212117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272378</v>
+        <v>273379</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1282505267092729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1123022522428913</v>
+        <v>0.1125781201320001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1445604257963716</v>
+        <v>0.1450917373752768</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>884571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>858830</v>
+        <v>861229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>904878</v>
+        <v>904284</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9063882413029584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8800128869224474</v>
+        <v>0.8824706841480472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.927196316155217</v>
+        <v>0.9265877913912522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1113</v>
@@ -1484,19 +1484,19 @@
         <v>757962</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>737411</v>
+        <v>735603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>778186</v>
+        <v>777514</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8345295910762143</v>
+        <v>0.8345295910762142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8119023081742286</v>
+        <v>0.8099110293158748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8567966490315001</v>
+        <v>0.856056433623158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1983</v>
@@ -1505,19 +1505,19 @@
         <v>1642533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1611802</v>
+        <v>1610801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1672582</v>
+        <v>1672063</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8717494732907271</v>
+        <v>0.8717494732907269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8554395742036284</v>
+        <v>0.8549082626247232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8876977477571087</v>
+        <v>0.8874218798679999</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>481758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>437235</v>
+        <v>438350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>525248</v>
+        <v>525350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1384633052318283</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1256668744627816</v>
+        <v>0.125987302136348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1509630540200364</v>
+        <v>0.1509921356895193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1242</v>
@@ -1630,19 +1630,19 @@
         <v>837143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>793556</v>
+        <v>795887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>886155</v>
+        <v>882435</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2266123029306664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2148134291898547</v>
+        <v>0.2154442410849851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.23987954116173</v>
+        <v>0.2388724846216882</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1757</v>
@@ -1651,19 +1651,19 @@
         <v>1318902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1257076</v>
+        <v>1256574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1381216</v>
+        <v>1378290</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1838578494336338</v>
+        <v>0.1838578494336337</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1752391661697008</v>
+        <v>0.1751692177634245</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1925445767885229</v>
+        <v>0.1921367048854802</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2997560</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2954070</v>
+        <v>2953968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3042083</v>
+        <v>3040968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8615366947681716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8490369459799636</v>
+        <v>0.8490078643104807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8743331255372182</v>
+        <v>0.874012697863652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4060</v>
@@ -1701,19 +1701,19 @@
         <v>2857023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2808011</v>
+        <v>2811731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2900610</v>
+        <v>2898279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7733876970693336</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7601204588382701</v>
+        <v>0.7611275153783118</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7851865708101455</v>
+        <v>0.7845557589150152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6884</v>
@@ -1722,19 +1722,19 @@
         <v>5854583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5792269</v>
+        <v>5795195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5916409</v>
+        <v>5916911</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8161421505663662</v>
+        <v>0.8161421505663663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8074554232114771</v>
+        <v>0.8078632951145199</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8247608338302992</v>
+        <v>0.8248307822365756</v>
       </c>
     </row>
     <row r="18">
